--- a/pm/Timesheet.xlsx
+++ b/pm/Timesheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_all\school kdg 2018-19\Project Web\P2 Musicalloo\PM shit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_all\school kdg 2018-19\Project Web\P2 Musicalloo\Musicalloo\PM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A492ECE-9AA8-4BB0-BA6B-9438687BE32D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F41181-A532-49B7-B32F-DAFD5D9FCFAB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13605" xr2:uid="{C1E3C196-5BBE-4B27-9906-30B5F56E461A}"/>
   </bookViews>
@@ -610,7 +610,7 @@
   <dimension ref="A1:W48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,15 +730,15 @@
       </c>
       <c r="I5" s="11">
         <f>SUM(W16)</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J5" s="12">
         <f>SUM(B5:I5)</f>
-        <v>112.5</v>
+        <v>121.5</v>
       </c>
       <c r="K5" s="13">
         <f>AVERAGE(D5:I5)</f>
-        <v>17.333333333333332</v>
+        <v>18.833333333333332</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -773,15 +773,15 @@
       </c>
       <c r="I6" s="16">
         <f>SUM(W17)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J6" s="17">
         <f>SUM(B6:I6)</f>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K6" s="18">
         <f>AVERAGE(D6:I6)</f>
-        <v>13.25</v>
+        <v>13.583333333333334</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -864,11 +864,11 @@
       </c>
       <c r="I9">
         <f t="shared" ref="I9" si="1">SUM(I4:I7)</f>
-        <v>31.5</v>
+        <v>42.5</v>
       </c>
       <c r="J9" s="10">
         <f>SUM(B9:I9)</f>
-        <v>387.5</v>
+        <v>398.5</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -905,11 +905,11 @@
       </c>
       <c r="I10">
         <f t="shared" ref="I10" si="3">PRODUCT(I9,40)</f>
-        <v>1260</v>
+        <v>1700</v>
       </c>
       <c r="J10" s="10">
         <f>SUM(B10:I10)</f>
-        <v>15500</v>
+        <v>15940</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -1020,7 +1020,7 @@
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
       <c r="W16" s="6">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -1054,7 +1054,7 @@
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
       <c r="W17" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">

--- a/pm/Timesheet.xlsx
+++ b/pm/Timesheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_all\school kdg 2018-19\Project Web\P2 Musicalloo\Musicalloo\PM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_all\school kdg 2018-19\Project Web\P2 Musicalloo\github\musicalloo\pm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F41181-A532-49B7-B32F-DAFD5D9FCFAB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD15D5BB-D6E7-4441-A2FE-C2A6F5495ADF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13605" xr2:uid="{C1E3C196-5BBE-4B27-9906-30B5F56E461A}"/>
   </bookViews>
@@ -610,7 +610,7 @@
   <dimension ref="A1:W48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W22" sqref="W22"/>
+      <selection activeCell="T43" sqref="T43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,19 +683,19 @@
       </c>
       <c r="H4" s="19">
         <f>SUM(Q26:Q28)</f>
-        <v>15.75</v>
+        <v>14.5</v>
       </c>
       <c r="I4" s="19">
         <f>SUM(W14:W15)</f>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J4" s="20">
         <f>SUM(B4:I4)</f>
-        <v>96.5</v>
+        <v>101.25</v>
       </c>
       <c r="K4" s="21">
         <f>AVERAGE(D4:I4)</f>
-        <v>14.666666666666666</v>
+        <v>15.458333333333334</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -860,15 +860,15 @@
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>69.75</v>
       </c>
       <c r="I9">
         <f t="shared" ref="I9" si="1">SUM(I4:I7)</f>
-        <v>42.5</v>
+        <v>48.5</v>
       </c>
       <c r="J9" s="10">
         <f>SUM(B9:I9)</f>
-        <v>398.5</v>
+        <v>403.25</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -901,15 +901,15 @@
       </c>
       <c r="H10">
         <f t="shared" si="2"/>
-        <v>2840</v>
+        <v>2790</v>
       </c>
       <c r="I10">
         <f t="shared" ref="I10" si="3">PRODUCT(I9,40)</f>
-        <v>1700</v>
+        <v>1940</v>
       </c>
       <c r="J10" s="10">
         <f>SUM(B10:I10)</f>
-        <v>15940</v>
+        <v>16130</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -959,7 +959,7 @@
       <c r="U14" s="24"/>
       <c r="V14" s="24"/>
       <c r="W14" s="24">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -985,7 +985,7 @@
       <c r="U15" s="24"/>
       <c r="V15" s="24"/>
       <c r="W15" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -1293,7 +1293,7 @@
       <c r="O26" s="24"/>
       <c r="P26" s="24"/>
       <c r="Q26" s="24">
-        <v>15</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
